--- a/Resources/data/ANTERIOR - Retorno Países OCDE y AL.xlsx
+++ b/Resources/data/ANTERIOR - Retorno Países OCDE y AL.xlsx
@@ -915,13 +915,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="dd\-mmm\-yy"/>
-    <numFmt numFmtId="177" formatCode="dd\-mmm"/>
-    <numFmt numFmtId="178" formatCode="mmm\-yy"/>
+    <numFmt numFmtId="176" formatCode="dd\-mmm"/>
+    <numFmt numFmtId="177" formatCode="mmm\-yy"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="dd\-mmm\-yy"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -978,15 +978,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1007,8 +1020,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1022,40 +1036,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1068,15 +1053,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1092,6 +1084,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1128,7 +1128,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="9" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1152,7 +1152,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1164,61 +1218,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1230,7 +1230,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1254,7 +1254,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1266,73 +1308,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1397,23 +1397,28 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1433,26 +1438,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1467,142 +1452,157 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1613,7 +1613,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1625,8 +1625,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1636,6 +1636,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1646,22 +1649,25 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="58" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="48" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1670,7 +1676,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="48" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1709,45 +1715,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="58" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="48" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="48" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1755,21 +1749,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="48" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="48" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="48" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2358,48 +2337,48 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="60">
+      <c r="B4" s="53">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="60">
+      <c r="B5" s="53">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="60">
+      <c r="B6" s="53">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="60">
+      <c r="B7" s="53">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="60"/>
+      <c r="B8" s="53"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="60">
+      <c r="B9" s="53">
         <v>30</v>
       </c>
     </row>
@@ -2439,16 +2418,16 @@
   </cols>
   <sheetData>
     <row r="1" ht="42" customHeight="1" spans="1:8">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="13"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="14"/>
     </row>
     <row r="2" ht="47.25" customHeight="1" spans="1:14">
       <c r="A2" s="8" t="s">
@@ -2494,23 +2473,23 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" s="30" customFormat="1" ht="45" hidden="1" customHeight="1" spans="1:14">
-      <c r="A3" s="32" t="s">
+    <row r="3" s="32" customFormat="1" ht="45" hidden="1" customHeight="1" spans="1:14">
+      <c r="A3" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="34" t="s">
         <v>25</v>
       </c>
       <c r="E3" s="38">
         <v>44287</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="34" t="s">
         <v>25</v>
       </c>
       <c r="G3" s="39" t="s">
@@ -2519,1804 +2498,1804 @@
       <c r="H3" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="32" t="s">
+      <c r="I3" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="32" t="s">
+      <c r="J3" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="32" t="s">
+      <c r="K3" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="32" t="s">
+      <c r="L3" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="32" t="s">
+      <c r="M3" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="46" t="s">
+      <c r="N3" s="45" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" ht="99.75" hidden="1" spans="1:14">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="34" t="s">
+      <c r="D4" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="37" t="s">
+      <c r="F4" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="35" t="s">
+      <c r="H4" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="34" t="s">
+      <c r="I4" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="L4" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="M4" s="37" t="s">
+      <c r="L4" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="N4" s="47" t="s">
+      <c r="N4" s="22" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" ht="104.25" hidden="1" customHeight="1" spans="1:14">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="36" t="s">
+      <c r="D5" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="37" t="s">
+      <c r="F5" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="35" t="s">
+      <c r="H5" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="L5" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" s="36" t="s">
+      <c r="I5" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="N5" s="48" t="s">
+      <c r="N5" s="46" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="34"/>
-      <c r="B6" s="34" t="s">
+      <c r="A6" s="36"/>
+      <c r="B6" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="49"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="47"/>
     </row>
     <row r="7" ht="249.75" hidden="1" customHeight="1" spans="1:14">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="37" t="s">
         <v>47</v>
       </c>
       <c r="E7" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="36" t="s">
+      <c r="F7" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="35" t="s">
+      <c r="H7" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="K7" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="M7" s="36" t="s">
+      <c r="I7" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="N7" s="50" t="s">
+      <c r="N7" s="48" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="8" ht="169.5" hidden="1" customHeight="1" spans="1:14">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="34" t="s">
+      <c r="D8" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="36" t="s">
+      <c r="F8" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="H8" s="35" t="s">
+      <c r="H8" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="L8" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="M8" s="36" t="s">
+      <c r="I8" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="N8" s="50" t="s">
+      <c r="N8" s="48" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="9" ht="128.25" hidden="1" spans="1:14">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="36" t="s">
         <v>32</v>
       </c>
       <c r="E9" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="36" t="s">
+      <c r="F9" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="H9" s="36" t="s">
+      <c r="H9" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="I9" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="L9" s="36" t="s">
+      <c r="I9" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="M9" s="36" t="s">
+      <c r="M9" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="N9" s="50" t="s">
+      <c r="N9" s="48" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="10" ht="85.5" hidden="1" spans="1:14">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="36" t="s">
         <v>32</v>
       </c>
       <c r="E10" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="34" t="s">
+      <c r="F10" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="G10" s="36" t="s">
+      <c r="G10" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="H10" s="34" t="s">
+      <c r="H10" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="I10" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="L10" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="M10" s="51" t="s">
+      <c r="I10" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="M10" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="N10" s="47" t="s">
+      <c r="N10" s="22" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="11" ht="71.25" hidden="1" spans="1:14">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="34" t="s">
+      <c r="D11" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="36" t="s">
+      <c r="F11" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="H11" s="37" t="s">
+      <c r="H11" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="I11" s="37" t="s">
+      <c r="I11" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="J11" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="K11" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="L11" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="M11" s="36" t="s">
+      <c r="J11" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="L11" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="M11" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="N11" s="47" t="s">
+      <c r="N11" s="22" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="34"/>
-      <c r="B12" s="34" t="s">
+      <c r="A12" s="36"/>
+      <c r="B12" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="49"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="47"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="34"/>
-      <c r="B13" s="34" t="s">
+      <c r="A13" s="36"/>
+      <c r="B13" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="49"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="47"/>
     </row>
     <row r="14" ht="108.75" hidden="1" customHeight="1" spans="1:14">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="D14" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="34" t="s">
+      <c r="D14" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="F14" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="36" t="s">
+      <c r="F14" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="H14" s="35" t="s">
+      <c r="H14" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="J14" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="K14" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="L14" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="M14" s="36" t="s">
+      <c r="I14" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="L14" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="M14" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="N14" s="49" t="s">
+      <c r="N14" s="47" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="15" ht="142.5" hidden="1" spans="1:14">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D15" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="34" t="s">
+      <c r="D15" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="F15" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="36" t="s">
+      <c r="F15" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="H15" s="36" t="s">
+      <c r="H15" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="I15" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="J15" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="K15" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="L15" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="M15" s="36" t="s">
+      <c r="I15" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="L15" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="M15" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="N15" s="52" t="s">
+      <c r="N15" s="29" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="34"/>
-      <c r="B16" s="34" t="s">
+      <c r="A16" s="36"/>
+      <c r="B16" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="49"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="47"/>
     </row>
     <row r="17" ht="330" hidden="1" customHeight="1" spans="1:16">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="D17" s="34" t="s">
+      <c r="D17" s="36" t="s">
         <v>65</v>
       </c>
       <c r="E17" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="F17" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17" s="37" t="s">
+      <c r="F17" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="11" t="s">
         <v>90</v>
       </c>
       <c r="H17" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="I17" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="J17" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="K17" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="L17" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="M17" s="36" t="s">
+      <c r="I17" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="K17" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="L17" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="N17" s="47" t="s">
+      <c r="N17" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="O17" s="53"/>
-      <c r="P17" s="53"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
     </row>
     <row r="18" ht="313.5" hidden="1" spans="1:14">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="D18" s="34" t="s">
+      <c r="D18" s="36" t="s">
         <v>32</v>
       </c>
       <c r="E18" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="F18" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="37" t="s">
+      <c r="F18" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="H18" s="35" t="s">
+      <c r="H18" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="I18" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="J18" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="K18" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="L18" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="M18" s="37" t="s">
+      <c r="I18" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="M18" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="N18" s="54" t="s">
+      <c r="N18" s="28" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="34"/>
-      <c r="B19" s="34" t="s">
+      <c r="A19" s="36"/>
+      <c r="B19" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="49"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="47"/>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="34"/>
-      <c r="B20" s="34" t="s">
+      <c r="A20" s="36"/>
+      <c r="B20" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="49"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="47"/>
     </row>
     <row r="21" ht="213.75" hidden="1" spans="1:14">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="D21" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="34" t="s">
+      <c r="D21" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="F21" s="34"/>
-      <c r="G21" s="37" t="s">
+      <c r="F21" s="36"/>
+      <c r="G21" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="H21" s="34" t="s">
+      <c r="H21" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="I21" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="J21" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="K21" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="L21" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="M21" s="37" t="s">
+      <c r="I21" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="L21" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="M21" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="N21" s="55" t="s">
+      <c r="N21" s="25" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="34"/>
-      <c r="B22" s="34" t="s">
+      <c r="A22" s="36"/>
+      <c r="B22" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="49"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="47"/>
     </row>
     <row r="23" ht="256.5" hidden="1" spans="1:14">
-      <c r="A23" s="34" t="s">
+      <c r="A23" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="D23" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="34" t="s">
+      <c r="D23" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="F23" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="G23" s="37" t="s">
+      <c r="F23" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="H23" s="35" t="s">
+      <c r="H23" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="I23" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="J23" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="K23" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="L23" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="M23" s="37" t="s">
+      <c r="I23" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="J23" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="K23" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="L23" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="M23" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="N23" s="56" t="s">
+      <c r="N23" s="49" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="24" ht="142.5" hidden="1" spans="1:14">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="C24" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="D24" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" s="36" t="s">
+      <c r="D24" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="F24" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="G24" s="37" t="s">
+      <c r="F24" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="H24" s="37" t="s">
+      <c r="H24" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="I24" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="J24" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="K24" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="L24" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="M24" s="37" t="s">
+      <c r="I24" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="J24" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="K24" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="L24" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="M24" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="N24" s="56" t="s">
+      <c r="N24" s="49" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="25" ht="57" hidden="1" spans="1:14">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="34" t="s">
+      <c r="C25" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="D25" s="34" t="s">
+      <c r="D25" s="36" t="s">
         <v>32</v>
       </c>
       <c r="E25" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="F25" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="G25" s="36" t="s">
+      <c r="F25" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="H25" s="36" t="s">
+      <c r="H25" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="I25" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="J25" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="K25" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="L25" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="M25" s="36" t="s">
+      <c r="I25" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J25" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="K25" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="L25" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="M25" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="N25" s="47" t="s">
+      <c r="N25" s="22" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="34"/>
-      <c r="B26" s="34" t="s">
+      <c r="A26" s="36"/>
+      <c r="B26" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="34" t="s">
+      <c r="C26" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
-      <c r="N26" s="49"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="47"/>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="34"/>
-      <c r="B27" s="34" t="s">
+      <c r="A27" s="36"/>
+      <c r="B27" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="34" t="s">
+      <c r="C27" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="49"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="47"/>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="34"/>
-      <c r="B28" s="34" t="s">
+      <c r="A28" s="36"/>
+      <c r="B28" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="34" t="s">
+      <c r="C28" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="34"/>
-      <c r="N28" s="49"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="47"/>
     </row>
     <row r="29" ht="99.75" hidden="1" spans="1:14">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="34" t="s">
+      <c r="C29" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="D29" s="36" t="s">
+      <c r="D29" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="E29" s="36" t="s">
+      <c r="E29" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="F29" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="G29" s="36" t="s">
+      <c r="F29" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="H29" s="35" t="s">
+      <c r="H29" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="I29" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="J29" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="K29" s="36" t="s">
+      <c r="I29" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="J29" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="K29" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="L29" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="M29" s="36" t="s">
+      <c r="L29" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="M29" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="N29" s="55" t="s">
+      <c r="N29" s="25" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="30" ht="142.5" hidden="1" spans="1:14">
-      <c r="A30" s="34" t="s">
+      <c r="A30" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="34" t="s">
+      <c r="B30" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="34" t="s">
+      <c r="C30" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="D30" s="34" t="s">
+      <c r="D30" s="36" t="s">
         <v>32</v>
       </c>
       <c r="E30" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="F30" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="G30" s="36" t="s">
+      <c r="F30" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="H30" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="I30" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="J30" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="K30" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="L30" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="M30" s="36" t="s">
+      <c r="H30" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="I30" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="J30" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="K30" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="L30" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="M30" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="N30" s="50" t="s">
+      <c r="N30" s="48" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" s="34"/>
-      <c r="B31" s="34" t="s">
+      <c r="A31" s="36"/>
+      <c r="B31" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="34" t="s">
+      <c r="C31" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="49"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="47"/>
     </row>
     <row r="32" ht="322.5" hidden="1" customHeight="1" spans="1:14">
-      <c r="A32" s="34" t="s">
+      <c r="A32" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="34" t="s">
+      <c r="B32" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="34" t="s">
+      <c r="C32" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="D32" s="34" t="s">
+      <c r="D32" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="E32" s="43" t="s">
+      <c r="E32" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="F32" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="G32" s="36" t="s">
+      <c r="F32" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="G32" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="H32" s="35" t="s">
+      <c r="H32" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="I32" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="J32" s="37" t="s">
+      <c r="I32" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J32" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="K32" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="L32" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="M32" s="35" t="s">
+      <c r="K32" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="L32" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="M32" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="N32" s="47" t="s">
+      <c r="N32" s="22" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" s="34"/>
-      <c r="B33" s="34" t="s">
+      <c r="A33" s="36"/>
+      <c r="B33" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="34" t="s">
+      <c r="C33" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="34"/>
-      <c r="M33" s="34" t="s">
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="N33" s="49"/>
+      <c r="N33" s="47"/>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="34"/>
-      <c r="B34" s="34" t="s">
+      <c r="A34" s="36"/>
+      <c r="B34" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="34" t="s">
+      <c r="C34" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="34"/>
-      <c r="K34" s="34"/>
-      <c r="L34" s="34"/>
-      <c r="M34" s="34" t="s">
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36" t="s">
         <v>147</v>
       </c>
-      <c r="N34" s="49"/>
+      <c r="N34" s="47"/>
     </row>
     <row r="35" ht="171" hidden="1" spans="1:14">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="34" t="s">
+      <c r="B35" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="35" t="s">
+      <c r="C35" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="D35" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="E35" s="44" t="s">
+      <c r="D35" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="F35" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="G35" s="37" t="s">
+      <c r="F35" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="G35" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="H35" s="37" t="s">
+      <c r="H35" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="I35" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="J35" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="K35" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="L35" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="M35" s="37" t="s">
+      <c r="I35" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="J35" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="K35" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="L35" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="M35" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="N35" s="56" t="s">
+      <c r="N35" s="49" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="36" hidden="1" spans="1:14">
-      <c r="A36" s="34"/>
-      <c r="B36" s="34" t="s">
+      <c r="A36" s="36"/>
+      <c r="B36" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="34" t="s">
+      <c r="C36" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="D36" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="34"/>
-      <c r="L36" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="M36" s="34" t="s">
+      <c r="D36" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="M36" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="N36" s="49"/>
+      <c r="N36" s="47"/>
     </row>
     <row r="37" hidden="1" spans="1:14">
-      <c r="A37" s="34"/>
-      <c r="B37" s="34" t="s">
+      <c r="A37" s="36"/>
+      <c r="B37" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="34" t="s">
+      <c r="C37" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="D37" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="34"/>
-      <c r="K37" s="34"/>
-      <c r="L37" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="M37" s="34" t="s">
+      <c r="D37" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="M37" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="N37" s="49"/>
+      <c r="N37" s="47"/>
     </row>
     <row r="38" ht="42.75" hidden="1" spans="1:15">
-      <c r="A38" s="34" t="s">
+      <c r="A38" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="34" t="s">
+      <c r="B38" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C38" s="34" t="s">
+      <c r="C38" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="D38" s="37" t="s">
+      <c r="D38" s="11" t="s">
         <v>158</v>
       </c>
       <c r="E38" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="F38" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="G38" s="37" t="s">
+      <c r="F38" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="G38" s="11" t="s">
         <v>159</v>
       </c>
       <c r="H38" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="I38" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="J38" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="K38" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="L38" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="M38" s="36" t="s">
+      <c r="I38" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="J38" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="K38" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="L38" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="M38" s="37" t="s">
         <v>160</v>
       </c>
-      <c r="N38" s="47" t="s">
+      <c r="N38" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="O38" s="53"/>
+      <c r="O38" s="27"/>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" s="34"/>
-      <c r="B39" s="34" t="s">
+      <c r="A39" s="36"/>
+      <c r="B39" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C39" s="34" t="s">
+      <c r="C39" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="34"/>
-      <c r="K39" s="34"/>
-      <c r="L39" s="34"/>
-      <c r="M39" s="34"/>
-      <c r="N39" s="49"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="36"/>
+      <c r="M39" s="36"/>
+      <c r="N39" s="47"/>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="34"/>
-      <c r="B40" s="34" t="s">
+      <c r="A40" s="36"/>
+      <c r="B40" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C40" s="34" t="s">
+      <c r="C40" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="D40" s="34"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="34"/>
-      <c r="I40" s="34"/>
-      <c r="J40" s="34"/>
-      <c r="K40" s="34"/>
-      <c r="L40" s="34"/>
-      <c r="M40" s="34"/>
-      <c r="N40" s="49"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="36"/>
+      <c r="M40" s="36"/>
+      <c r="N40" s="47"/>
     </row>
     <row r="41" ht="85.5" hidden="1" spans="1:14">
-      <c r="A41" s="34" t="s">
+      <c r="A41" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B41" s="34" t="s">
+      <c r="B41" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="C41" s="34" t="s">
+      <c r="C41" s="36" t="s">
         <v>165</v>
       </c>
-      <c r="D41" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="E41" s="34" t="s">
+      <c r="D41" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="E41" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="F41" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="G41" s="36" t="s">
+      <c r="F41" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="G41" s="37" t="s">
         <v>166</v>
       </c>
-      <c r="H41" s="34" t="s">
+      <c r="H41" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="I41" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="J41" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="K41" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="L41" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="M41" s="36" t="s">
+      <c r="I41" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="J41" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="K41" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="L41" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="M41" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="N41" s="57" t="s">
+      <c r="N41" s="50" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="42" ht="99.75" hidden="1" spans="1:14">
-      <c r="A42" s="34" t="s">
+      <c r="A42" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B42" s="34" t="s">
+      <c r="B42" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="C42" s="34" t="s">
+      <c r="C42" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="D42" s="34" t="s">
+      <c r="D42" s="36" t="s">
         <v>32</v>
       </c>
       <c r="E42" s="41" t="s">
         <v>171</v>
       </c>
-      <c r="F42" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="G42" s="36" t="s">
+      <c r="F42" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="G42" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="H42" s="37" t="s">
+      <c r="H42" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="I42" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="J42" s="35" t="s">
+      <c r="I42" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="J42" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="K42" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="L42" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="M42" s="36" t="s">
+      <c r="K42" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="L42" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="M42" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="N42" s="47" t="s">
+      <c r="N42" s="22" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="43" ht="285" hidden="1" spans="1:14">
-      <c r="A43" s="34" t="s">
+      <c r="A43" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B43" s="34" t="s">
+      <c r="B43" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="C43" s="35" t="s">
+      <c r="C43" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="D43" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="E43" s="44" t="s">
+      <c r="D43" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="E43" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="F43" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="G43" s="37" t="s">
+      <c r="F43" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="G43" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="H43" s="37" t="s">
+      <c r="H43" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="I43" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="J43" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="K43" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="L43" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="M43" s="37" t="s">
+      <c r="I43" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="J43" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="K43" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="L43" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="M43" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="N43" s="55" t="s">
+      <c r="N43" s="25" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="44" ht="185.25" hidden="1" spans="1:14">
-      <c r="A44" s="34" t="s">
+      <c r="A44" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B44" s="34" t="s">
+      <c r="B44" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="C44" s="35" t="s">
+      <c r="C44" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="D44" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="E44" s="44" t="s">
+      <c r="D44" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="F44" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="G44" s="37" t="s">
+      <c r="F44" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="G44" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="H44" s="37" t="s">
+      <c r="H44" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="I44" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="J44" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="K44" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="L44" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="M44" s="37" t="s">
+      <c r="I44" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="J44" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="K44" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="L44" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="M44" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="N44" s="55" t="s">
+      <c r="N44" s="25" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="45" ht="85.5" hidden="1" spans="1:14">
-      <c r="A45" s="34" t="s">
+      <c r="A45" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B45" s="34" t="s">
+      <c r="B45" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="C45" s="34" t="s">
+      <c r="C45" s="36" t="s">
         <v>186</v>
       </c>
-      <c r="D45" s="37" t="s">
+      <c r="D45" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="E45" s="37" t="s">
+      <c r="E45" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="F45" s="37" t="s">
+      <c r="F45" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="G45" s="36" t="s">
+      <c r="G45" s="37" t="s">
         <v>190</v>
       </c>
-      <c r="H45" s="35" t="s">
+      <c r="H45" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="I45" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="J45" s="35" t="s">
+      <c r="I45" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="J45" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="K45" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="L45" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="M45" s="36" t="s">
+      <c r="K45" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="L45" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="M45" s="37" t="s">
         <v>191</v>
       </c>
-      <c r="N45" s="50" t="s">
+      <c r="N45" s="48" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="46" ht="85.5" hidden="1" spans="1:14">
-      <c r="A46" s="34" t="s">
+      <c r="A46" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B46" s="34" t="s">
+      <c r="B46" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="C46" s="34" t="s">
+      <c r="C46" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="D46" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="E46" s="45" t="s">
+      <c r="D46" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="E46" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="F46" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="G46" s="36" t="s">
+      <c r="F46" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="G46" s="37" t="s">
         <v>194</v>
       </c>
-      <c r="H46" s="36" t="s">
+      <c r="H46" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="I46" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="J46" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="K46" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="L46" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="M46" s="36" t="s">
+      <c r="I46" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="J46" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="K46" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="L46" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="M46" s="37" t="s">
         <v>196</v>
       </c>
-      <c r="N46" s="50" t="s">
+      <c r="N46" s="48" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="47" spans="1:14">
-      <c r="A47" s="34"/>
-      <c r="B47" s="34" t="s">
+      <c r="A47" s="36"/>
+      <c r="B47" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="C47" s="34" t="s">
+      <c r="C47" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="D47" s="34"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="34"/>
-      <c r="I47" s="34"/>
-      <c r="J47" s="34"/>
-      <c r="K47" s="34"/>
-      <c r="L47" s="34"/>
-      <c r="M47" s="34"/>
-      <c r="N47" s="49"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="36"/>
+      <c r="N47" s="47"/>
     </row>
     <row r="48" ht="114" hidden="1" spans="1:14">
-      <c r="A48" s="34" t="s">
+      <c r="A48" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B48" s="34" t="s">
+      <c r="B48" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="C48" s="34" t="s">
+      <c r="C48" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="D48" s="34" t="s">
+      <c r="D48" s="36" t="s">
         <v>32</v>
       </c>
       <c r="E48" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="F48" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="G48" s="36" t="s">
+      <c r="F48" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="G48" s="37" t="s">
         <v>200</v>
       </c>
-      <c r="H48" s="36" t="s">
+      <c r="H48" s="37" t="s">
         <v>201</v>
       </c>
-      <c r="I48" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="J48" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="K48" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="L48" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="M48" s="36" t="s">
+      <c r="I48" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="J48" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="K48" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="L48" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="M48" s="37" t="s">
         <v>202</v>
       </c>
-      <c r="N48" s="50" t="s">
+      <c r="N48" s="48" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="49" spans="1:14">
-      <c r="A49" s="34"/>
-      <c r="B49" s="34" t="s">
+      <c r="A49" s="36"/>
+      <c r="B49" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="C49" s="34" t="s">
+      <c r="C49" s="36" t="s">
         <v>204</v>
       </c>
-      <c r="D49" s="34"/>
-      <c r="E49" s="34"/>
-      <c r="F49" s="34"/>
-      <c r="G49" s="34"/>
-      <c r="H49" s="34"/>
-      <c r="I49" s="34"/>
-      <c r="J49" s="34"/>
-      <c r="K49" s="34"/>
-      <c r="L49" s="34"/>
-      <c r="M49" s="34"/>
-      <c r="N49" s="49"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="36"/>
+      <c r="J49" s="36"/>
+      <c r="K49" s="36"/>
+      <c r="L49" s="36"/>
+      <c r="M49" s="36"/>
+      <c r="N49" s="47"/>
     </row>
     <row r="50" spans="1:14">
-      <c r="A50" s="34"/>
-      <c r="B50" s="34" t="s">
+      <c r="A50" s="36"/>
+      <c r="B50" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="C50" s="34" t="s">
+      <c r="C50" s="36" t="s">
         <v>205</v>
       </c>
-      <c r="D50" s="34"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="34"/>
-      <c r="I50" s="34"/>
-      <c r="J50" s="34"/>
-      <c r="K50" s="34"/>
-      <c r="L50" s="34"/>
-      <c r="M50" s="34"/>
-      <c r="N50" s="49"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="36"/>
+      <c r="I50" s="36"/>
+      <c r="J50" s="36"/>
+      <c r="K50" s="36"/>
+      <c r="L50" s="36"/>
+      <c r="M50" s="36"/>
+      <c r="N50" s="47"/>
     </row>
     <row r="51" spans="1:14">
-      <c r="A51" s="34"/>
-      <c r="B51" s="34" t="s">
+      <c r="A51" s="36"/>
+      <c r="B51" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="C51" s="34" t="s">
+      <c r="C51" s="36" t="s">
         <v>206</v>
       </c>
-      <c r="D51" s="34"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="34"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="34"/>
-      <c r="I51" s="34"/>
-      <c r="J51" s="34"/>
-      <c r="K51" s="34"/>
-      <c r="L51" s="34"/>
-      <c r="M51" s="34"/>
-      <c r="N51" s="49"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="36"/>
+      <c r="H51" s="36"/>
+      <c r="I51" s="36"/>
+      <c r="J51" s="36"/>
+      <c r="K51" s="36"/>
+      <c r="L51" s="36"/>
+      <c r="M51" s="36"/>
+      <c r="N51" s="47"/>
     </row>
     <row r="52" ht="114" hidden="1" spans="1:14">
-      <c r="A52" s="34" t="s">
+      <c r="A52" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B52" s="34" t="s">
+      <c r="B52" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="C52" s="34" t="s">
+      <c r="C52" s="36" t="s">
         <v>207</v>
       </c>
-      <c r="D52" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="E52" s="34" t="s">
+      <c r="D52" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="E52" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="F52" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="G52" s="36" t="s">
+      <c r="F52" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="G52" s="37" t="s">
         <v>208</v>
       </c>
-      <c r="H52" s="37" t="s">
+      <c r="H52" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="I52" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="J52" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="K52" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="L52" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="M52" s="36" t="s">
+      <c r="I52" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="J52" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="K52" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="L52" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="M52" s="37" t="s">
         <v>210</v>
       </c>
-      <c r="N52" s="49" t="s">
+      <c r="N52" s="47" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="53" ht="156.75" hidden="1" spans="1:14">
-      <c r="A53" s="34" t="s">
+      <c r="A53" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B53" s="34" t="s">
+      <c r="B53" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="C53" s="34" t="s">
+      <c r="C53" s="36" t="s">
         <v>212</v>
       </c>
-      <c r="D53" s="36" t="s">
+      <c r="D53" s="37" t="s">
         <v>213</v>
       </c>
-      <c r="E53" s="34" t="s">
+      <c r="E53" s="36" t="s">
         <v>214</v>
       </c>
-      <c r="F53" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="G53" s="36" t="s">
+      <c r="F53" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="G53" s="37" t="s">
         <v>215</v>
       </c>
-      <c r="H53" s="35" t="s">
+      <c r="H53" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="I53" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="J53" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="K53" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="L53" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="M53" s="36" t="s">
+      <c r="I53" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="J53" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="K53" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="L53" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="M53" s="37" t="s">
         <v>217</v>
       </c>
-      <c r="N53" s="58" t="s">
+      <c r="N53" s="51" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="54" spans="1:14">
-      <c r="A54" s="34"/>
-      <c r="B54" s="34" t="s">
+      <c r="A54" s="36"/>
+      <c r="B54" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="C54" s="34" t="s">
+      <c r="C54" s="36" t="s">
         <v>219</v>
       </c>
-      <c r="D54" s="34"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="34"/>
-      <c r="G54" s="34"/>
-      <c r="H54" s="34"/>
-      <c r="I54" s="34"/>
-      <c r="J54" s="34"/>
-      <c r="K54" s="34"/>
-      <c r="L54" s="34"/>
-      <c r="M54" s="34"/>
-      <c r="N54" s="49"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="36"/>
+      <c r="N54" s="47"/>
     </row>
     <row r="55" ht="42.75" hidden="1" spans="1:14">
-      <c r="A55" s="34" t="s">
+      <c r="A55" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B55" s="34" t="s">
+      <c r="B55" s="36" t="s">
         <v>164</v>
       </c>
-      <c r="C55" s="34" t="s">
+      <c r="C55" s="36" t="s">
         <v>220</v>
       </c>
-      <c r="D55" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="E55" s="34" t="s">
+      <c r="D55" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="E55" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="F55" s="34" t="s">
+      <c r="F55" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="G55" s="36" t="s">
+      <c r="G55" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="H55" s="36" t="s">
+      <c r="H55" s="37" t="s">
         <v>221</v>
       </c>
-      <c r="I55" s="35" t="s">
+      <c r="I55" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="J55" s="35" t="s">
+      <c r="J55" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="K55" s="34" t="s">
+      <c r="K55" s="36" t="s">
         <v>222</v>
       </c>
-      <c r="L55" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="M55" s="35" t="s">
+      <c r="L55" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="M55" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="N55" s="47" t="s">
+      <c r="N55" s="22" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="57" spans="2:2">
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="14" t="s">
         <v>224</v>
       </c>
     </row>
@@ -4365,10 +4344,10 @@
   <sheetPr/>
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="L1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
+      <selection pane="bottomLeft" activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -4399,7 +4378,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
-      <c r="H1" s="13"/>
+      <c r="H1" s="14"/>
     </row>
     <row r="2" ht="47.25" customHeight="1" spans="1:14">
       <c r="A2" s="8" t="s">
@@ -4445,7 +4424,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" s="6" customFormat="1" ht="24" customHeight="1" spans="1:14">
+    <row r="3" s="5" customFormat="1" ht="24" customHeight="1" spans="1:14">
       <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
@@ -4464,7 +4443,7 @@
       <c r="F3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="11" t="s">
         <v>34</v>
       </c>
       <c r="H3" s="9" t="s">
@@ -4482,14 +4461,14 @@
       <c r="L3" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="20" t="s">
+      <c r="N3" s="22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" s="6" customFormat="1" ht="31" customHeight="1" spans="1:14">
+    <row r="4" s="5" customFormat="1" ht="31" customHeight="1" spans="1:14">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
@@ -4508,7 +4487,7 @@
       <c r="F4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="11" t="s">
         <v>166</v>
       </c>
       <c r="H4" s="9" t="s">
@@ -4526,58 +4505,58 @@
       <c r="L4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="M4" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="N4" s="21" t="s">
+      <c r="N4" s="23" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="5" s="6" customFormat="1" ht="22" customHeight="1" spans="1:14">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="10" t="s">
+      <c r="D5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="10" t="s">
+      <c r="F5" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" s="10" t="s">
+      <c r="I5" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="N5" s="22" t="s">
+      <c r="N5" s="24" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" s="6" customFormat="1" ht="28" customHeight="1" spans="1:14">
+    <row r="6" s="5" customFormat="1" ht="28" customHeight="1" spans="1:14">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
@@ -4590,16 +4569,16 @@
       <c r="D6" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="16" t="s">
         <v>171</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="11" t="s">
         <v>173</v>
       </c>
       <c r="I6" s="9" t="s">
@@ -4614,14 +4593,14 @@
       <c r="L6" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="M6" s="10" t="s">
+      <c r="M6" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="N6" s="20" t="s">
+      <c r="N6" s="22" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="7" s="6" customFormat="1" ht="22" customHeight="1" spans="1:14">
+    <row r="7" s="5" customFormat="1" ht="22" customHeight="1" spans="1:14">
       <c r="A7" s="9" t="s">
         <v>4</v>
       </c>
@@ -4634,19 +4613,19 @@
       <c r="D7" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="17" t="s">
         <v>82</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="11" t="s">
         <v>32</v>
       </c>
       <c r="J7" s="9" t="s">
@@ -4658,14 +4637,14 @@
       <c r="L7" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="M7" s="10" t="s">
+      <c r="M7" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="N7" s="23" t="s">
+      <c r="N7" s="25" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="8" s="6" customFormat="1" ht="19" customHeight="1" spans="1:14">
+    <row r="8" s="5" customFormat="1" ht="19" customHeight="1" spans="1:14">
       <c r="A8" s="9" t="s">
         <v>5</v>
       </c>
@@ -4675,16 +4654,16 @@
       <c r="C8" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="18" t="s">
         <v>48</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="11" t="s">
         <v>49</v>
       </c>
       <c r="H8" s="9" t="s">
@@ -4702,14 +4681,14 @@
       <c r="L8" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="M8" s="10" t="s">
+      <c r="M8" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="N8" s="20" t="s">
+      <c r="N8" s="22" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" s="6" customFormat="1" ht="25" customHeight="1" spans="1:14">
+    <row r="9" s="5" customFormat="1" ht="25" customHeight="1" spans="1:14">
       <c r="A9" s="9" t="s">
         <v>4</v>
       </c>
@@ -4728,32 +4707,32 @@
       <c r="F9" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="11" t="s">
         <v>54</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I9" s="11" t="s">
         <v>32</v>
       </c>
       <c r="J9" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="M9" s="10" t="s">
+      <c r="K9" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="M9" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="N9" s="20" t="s">
+      <c r="N9" s="22" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" s="6" customFormat="1" ht="25" customHeight="1" spans="1:14">
+    <row r="10" s="5" customFormat="1" ht="25" customHeight="1" spans="1:14">
       <c r="A10" s="9" t="s">
         <v>2</v>
       </c>
@@ -4766,16 +4745,16 @@
       <c r="D10" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="16" t="s">
         <v>33</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="11" t="s">
         <v>59</v>
       </c>
       <c r="I10" s="9" t="s">
@@ -4787,17 +4766,17 @@
       <c r="K10" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="L10" s="10" t="s">
+      <c r="L10" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="M10" s="10" t="s">
+      <c r="M10" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="N10" s="20" t="s">
+      <c r="N10" s="22" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="11" s="6" customFormat="1" ht="25" customHeight="1" spans="1:14">
+    <row r="11" s="5" customFormat="1" ht="25" customHeight="1" spans="1:14">
       <c r="A11" s="9" t="s">
         <v>5</v>
       </c>
@@ -4810,13 +4789,13 @@
       <c r="D11" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="18" t="s">
         <v>64</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="11" t="s">
         <v>66</v>
       </c>
       <c r="H11" s="9" t="s">
@@ -4834,14 +4813,14 @@
       <c r="L11" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="M11" s="24" t="s">
+      <c r="M11" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="N11" s="20" t="s">
+      <c r="N11" s="22" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="12" s="6" customFormat="1" ht="25" customHeight="1" spans="1:16">
+    <row r="12" s="5" customFormat="1" ht="25" customHeight="1" spans="1:16">
       <c r="A12" s="9" t="s">
         <v>3</v>
       </c>
@@ -4860,13 +4839,13 @@
       <c r="F12" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="I12" s="11" t="s">
         <v>35</v>
       </c>
       <c r="J12" s="9" t="s">
@@ -4878,16 +4857,16 @@
       <c r="L12" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="M12" s="10" t="s">
+      <c r="M12" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="N12" s="20" t="s">
+      <c r="N12" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
-    </row>
-    <row r="13" s="6" customFormat="1" ht="25" customHeight="1" spans="1:14">
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+    </row>
+    <row r="13" s="5" customFormat="1" ht="25" customHeight="1" spans="1:14">
       <c r="A13" s="9" t="s">
         <v>4</v>
       </c>
@@ -4900,16 +4879,16 @@
       <c r="D13" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="17" t="s">
         <v>82</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="11" t="s">
         <v>183</v>
       </c>
       <c r="I13" s="9" t="s">
@@ -4924,14 +4903,14 @@
       <c r="L13" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="M13" s="10" t="s">
+      <c r="M13" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="N13" s="23" t="s">
+      <c r="N13" s="25" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="14" s="6" customFormat="1" ht="25" customHeight="1" spans="1:14">
+    <row r="14" s="5" customFormat="1" ht="25" customHeight="1" spans="1:14">
       <c r="A14" s="9" t="s">
         <v>5</v>
       </c>
@@ -4941,16 +4920,16 @@
       <c r="C14" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="11" t="s">
         <v>190</v>
       </c>
       <c r="H14" s="9" t="s">
@@ -4968,14 +4947,14 @@
       <c r="L14" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="M14" s="10" t="s">
+      <c r="M14" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="N14" s="20" t="s">
+      <c r="N14" s="22" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="15" s="6" customFormat="1" ht="25" customHeight="1" spans="1:14">
+    <row r="15" s="5" customFormat="1" ht="25" customHeight="1" spans="1:14">
       <c r="A15" s="9" t="s">
         <v>3</v>
       </c>
@@ -4988,19 +4967,19 @@
       <c r="D15" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="19" t="s">
         <v>33</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="H15" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="I15" s="11" t="s">
         <v>32</v>
       </c>
       <c r="J15" s="9" t="s">
@@ -5009,17 +4988,17 @@
       <c r="K15" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="L15" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="M15" s="10" t="s">
+      <c r="L15" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="M15" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="N15" s="20" t="s">
+      <c r="N15" s="22" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="16" s="6" customFormat="1" ht="25" customHeight="1" spans="1:14">
+    <row r="16" s="5" customFormat="1" ht="25" customHeight="1" spans="1:14">
       <c r="A16" s="9" t="s">
         <v>3</v>
       </c>
@@ -5038,13 +5017,13 @@
       <c r="F16" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="11" t="s">
         <v>78</v>
       </c>
       <c r="H16" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="I16" s="10" t="s">
+      <c r="I16" s="11" t="s">
         <v>32</v>
       </c>
       <c r="J16" s="9" t="s">
@@ -5056,14 +5035,14 @@
       <c r="L16" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="M16" s="10" t="s">
+      <c r="M16" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="N16" s="26" t="s">
+      <c r="N16" s="28" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="17" s="6" customFormat="1" ht="25" customHeight="1" spans="1:14">
+    <row r="17" s="5" customFormat="1" ht="25" customHeight="1" spans="1:14">
       <c r="A17" s="9" t="s">
         <v>4</v>
       </c>
@@ -5082,32 +5061,32 @@
       <c r="F17" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="H17" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="I17" s="10" t="s">
+      <c r="I17" s="11" t="s">
         <v>32</v>
       </c>
       <c r="J17" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="K17" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="L17" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="M17" s="10" t="s">
+      <c r="K17" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="N17" s="27" t="s">
+      <c r="N17" s="29" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="18" s="6" customFormat="1" ht="25" customHeight="1" spans="1:14">
+    <row r="18" s="5" customFormat="1" ht="25" customHeight="1" spans="1:14">
       <c r="A18" s="9" t="s">
         <v>5</v>
       </c>
@@ -5120,13 +5099,13 @@
       <c r="D18" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>89</v>
       </c>
       <c r="F18" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="11" t="s">
         <v>90</v>
       </c>
       <c r="H18" s="9" t="s">
@@ -5144,14 +5123,14 @@
       <c r="L18" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="M18" s="10" t="s">
+      <c r="M18" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="N18" s="20" t="s">
+      <c r="N18" s="22" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="19" s="6" customFormat="1" ht="25" customHeight="1" spans="1:14">
+    <row r="19" s="5" customFormat="1" ht="25" customHeight="1" spans="1:14">
       <c r="A19" s="9" t="s">
         <v>3</v>
       </c>
@@ -5164,13 +5143,13 @@
       <c r="D19" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>89</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="11" t="s">
         <v>94</v>
       </c>
       <c r="H19" s="9" t="s">
@@ -5188,14 +5167,14 @@
       <c r="L19" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="M19" s="10" t="s">
+      <c r="M19" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="N19" s="26" t="s">
+      <c r="N19" s="28" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="20" s="6" customFormat="1" ht="25" customHeight="1" spans="1:14">
+    <row r="20" s="5" customFormat="1" ht="25" customHeight="1" spans="1:14">
       <c r="A20" s="9" t="s">
         <v>3</v>
       </c>
@@ -5208,19 +5187,19 @@
       <c r="D20" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="16" t="s">
         <v>64</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="H20" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="I20" s="10" t="s">
+      <c r="I20" s="11" t="s">
         <v>32</v>
       </c>
       <c r="J20" s="9" t="s">
@@ -5232,14 +5211,14 @@
       <c r="L20" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="M20" s="10" t="s">
+      <c r="M20" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="N20" s="20" t="s">
+      <c r="N20" s="22" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="21" s="6" customFormat="1" ht="25" customHeight="1" spans="1:14">
+    <row r="21" s="5" customFormat="1" ht="25" customHeight="1" spans="1:14">
       <c r="A21" s="9" t="s">
         <v>4</v>
       </c>
@@ -5258,7 +5237,7 @@
       <c r="F21" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="11" t="s">
         <v>100</v>
       </c>
       <c r="H21" s="9" t="s">
@@ -5276,14 +5255,14 @@
       <c r="L21" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="M21" s="10" t="s">
+      <c r="M21" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="N21" s="23" t="s">
+      <c r="N21" s="25" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="22" s="6" customFormat="1" ht="25" customHeight="1" spans="1:15">
+    <row r="22" s="5" customFormat="1" ht="25" customHeight="1" spans="1:15">
       <c r="A22" s="9" t="s">
         <v>4</v>
       </c>
@@ -5302,7 +5281,7 @@
       <c r="F22" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="G22" s="11" t="s">
         <v>106</v>
       </c>
       <c r="H22" s="9" t="s">
@@ -5320,15 +5299,15 @@
       <c r="L22" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="M22" s="10" t="s">
+      <c r="M22" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="N22" s="28" t="s">
+      <c r="N22" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="O22" s="25"/>
-    </row>
-    <row r="23" s="6" customFormat="1" ht="25" customHeight="1" spans="1:14">
+      <c r="O22" s="27"/>
+    </row>
+    <row r="23" s="5" customFormat="1" ht="25" customHeight="1" spans="1:14">
       <c r="A23" s="9" t="s">
         <v>4</v>
       </c>
@@ -5341,16 +5320,16 @@
       <c r="D23" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="11" t="s">
         <v>111</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="G23" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="H23" s="10" t="s">
+      <c r="H23" s="11" t="s">
         <v>113</v>
       </c>
       <c r="I23" s="9" t="s">
@@ -5365,14 +5344,14 @@
       <c r="L23" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="M23" s="10" t="s">
+      <c r="M23" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="N23" s="28" t="s">
+      <c r="N23" s="30" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="24" s="6" customFormat="1" ht="25" customHeight="1" spans="1:14">
+    <row r="24" s="5" customFormat="1" ht="25" customHeight="1" spans="1:14">
       <c r="A24" s="9" t="s">
         <v>3</v>
       </c>
@@ -5385,16 +5364,16 @@
       <c r="D24" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="16" t="s">
         <v>117</v>
       </c>
       <c r="F24" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G24" s="10" t="s">
+      <c r="G24" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="H24" s="10" t="s">
+      <c r="H24" s="11" t="s">
         <v>119</v>
       </c>
       <c r="I24" s="9" t="s">
@@ -5409,14 +5388,14 @@
       <c r="L24" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="M24" s="10" t="s">
+      <c r="M24" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="N24" s="20" t="s">
+      <c r="N24" s="22" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="25" s="6" customFormat="1" ht="25" customHeight="1" spans="1:14">
+    <row r="25" s="5" customFormat="1" ht="25" customHeight="1" spans="1:14">
       <c r="A25" s="9" t="s">
         <v>2</v>
       </c>
@@ -5426,41 +5405,41 @@
       <c r="C25" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="11" t="s">
         <v>127</v>
       </c>
       <c r="F25" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G25" s="10" t="s">
+      <c r="G25" s="11" t="s">
         <v>128</v>
       </c>
       <c r="H25" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="I25" s="10" t="s">
+      <c r="I25" s="11" t="s">
         <v>32</v>
       </c>
       <c r="J25" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="K25" s="10" t="s">
+      <c r="K25" s="11" t="s">
         <v>129</v>
       </c>
       <c r="L25" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="M25" s="10" t="s">
+      <c r="M25" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="N25" s="23" t="s">
+      <c r="N25" s="25" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="26" s="6" customFormat="1" ht="25" customHeight="1" spans="1:14">
+    <row r="26" s="5" customFormat="1" ht="25" customHeight="1" spans="1:14">
       <c r="A26" s="9" t="s">
         <v>5</v>
       </c>
@@ -5473,13 +5452,13 @@
       <c r="D26" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="16" t="s">
         <v>133</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G26" s="10" t="s">
+      <c r="G26" s="11" t="s">
         <v>134</v>
       </c>
       <c r="H26" s="9" t="s">
@@ -5497,14 +5476,14 @@
       <c r="L26" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="M26" s="10" t="s">
+      <c r="M26" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="N26" s="20" t="s">
+      <c r="N26" s="22" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="27" s="6" customFormat="1" ht="25" customHeight="1" spans="1:14">
+    <row r="27" s="5" customFormat="1" ht="25" customHeight="1" spans="1:14">
       <c r="A27" s="9" t="s">
         <v>3</v>
       </c>
@@ -5523,13 +5502,13 @@
       <c r="F27" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G27" s="10" t="s">
+      <c r="G27" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="H27" s="10" t="s">
+      <c r="H27" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="I27" s="10" t="s">
+      <c r="I27" s="11" t="s">
         <v>32</v>
       </c>
       <c r="J27" s="9" t="s">
@@ -5541,14 +5520,14 @@
       <c r="L27" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="M27" s="10" t="s">
+      <c r="M27" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="N27" s="26" t="s">
+      <c r="N27" s="28" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="28" s="6" customFormat="1" ht="25" customHeight="1" spans="1:14">
+    <row r="28" s="5" customFormat="1" ht="25" customHeight="1" spans="1:14">
       <c r="A28" s="9" t="s">
         <v>5</v>
       </c>
@@ -5561,13 +5540,13 @@
       <c r="D28" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="E28" s="20" t="s">
         <v>139</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G28" s="10" t="s">
+      <c r="G28" s="11" t="s">
         <v>140</v>
       </c>
       <c r="H28" s="9" t="s">
@@ -5576,7 +5555,7 @@
       <c r="I28" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="J28" s="10" t="s">
+      <c r="J28" s="11" t="s">
         <v>141</v>
       </c>
       <c r="K28" s="9" t="s">
@@ -5588,11 +5567,11 @@
       <c r="M28" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="N28" s="20" t="s">
+      <c r="N28" s="22" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="29" s="6" customFormat="1" ht="25" customHeight="1" spans="1:14">
+    <row r="29" s="5" customFormat="1" ht="25" customHeight="1" spans="1:14">
       <c r="A29" s="9" t="s">
         <v>2</v>
       </c>
@@ -5602,7 +5581,7 @@
       <c r="C29" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="11" t="s">
         <v>213</v>
       </c>
       <c r="E29" s="9" t="s">
@@ -5611,13 +5590,13 @@
       <c r="F29" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G29" s="10" t="s">
+      <c r="G29" s="11" t="s">
         <v>215</v>
       </c>
       <c r="H29" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="I29" s="10" t="s">
+      <c r="I29" s="11" t="s">
         <v>32</v>
       </c>
       <c r="J29" s="9" t="s">
@@ -5629,14 +5608,14 @@
       <c r="L29" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="M29" s="10" t="s">
+      <c r="M29" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="N29" s="23" t="s">
+      <c r="N29" s="25" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="30" s="6" customFormat="1" ht="25" customHeight="1" spans="1:14">
+    <row r="30" s="5" customFormat="1" ht="25" customHeight="1" spans="1:14">
       <c r="A30" s="9" t="s">
         <v>4</v>
       </c>
@@ -5649,16 +5628,16 @@
       <c r="D30" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E30" s="15" t="s">
+      <c r="E30" s="17" t="s">
         <v>33</v>
       </c>
       <c r="F30" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="G30" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="H30" s="10" t="s">
+      <c r="H30" s="11" t="s">
         <v>150</v>
       </c>
       <c r="I30" s="9" t="s">
@@ -5673,58 +5652,58 @@
       <c r="L30" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="M30" s="10" t="s">
+      <c r="M30" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="N30" s="28" t="s">
+      <c r="N30" s="30" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="31" s="3" customFormat="1" ht="25" customHeight="1" spans="1:14">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="E31" s="19" t="s">
+      <c r="E31" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="F31" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G31" s="12" t="s">
+      <c r="F31" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G31" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="H31" s="11" t="s">
+      <c r="H31" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="I31" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="J31" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="K31" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="L31" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="M31" s="12" t="s">
+      <c r="I31" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="L31" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="M31" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="N31" s="29" t="s">
+      <c r="N31" s="31" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="32" s="6" customFormat="1" ht="42.75" spans="1:14">
+    <row r="32" s="5" customFormat="1" ht="42.75" spans="1:14">
       <c r="A32" s="9" t="s">
         <v>5</v>
       </c>
@@ -5743,10 +5722,10 @@
       <c r="F32" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="G32" s="10" t="s">
+      <c r="G32" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="H32" s="10" t="s">
+      <c r="H32" s="11" t="s">
         <v>221</v>
       </c>
       <c r="I32" s="9" t="s">
@@ -5764,12 +5743,12 @@
       <c r="M32" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="N32" s="20" t="s">
+      <c r="N32" s="22" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="14" t="s">
         <v>226</v>
       </c>
     </row>
@@ -5865,7 +5844,7 @@
       <c r="B5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>45</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -5942,7 +5921,7 @@
       <c r="B12" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="3" t="s">
         <v>75</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -5953,7 +5932,7 @@
       <c r="B13" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="3" t="s">
         <v>233</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -5964,7 +5943,7 @@
       <c r="B14" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="3" t="s">
         <v>76</v>
       </c>
       <c r="D14" s="4" t="s">
@@ -6019,7 +5998,7 @@
       <c r="B19" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="3" t="s">
         <v>97</v>
       </c>
       <c r="D19" s="4" t="s">
@@ -6030,7 +6009,7 @@
       <c r="B20" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="3" t="s">
         <v>98</v>
       </c>
       <c r="D20" s="4" t="s">
@@ -6052,7 +6031,7 @@
       <c r="B22" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="3" t="s">
         <v>104</v>
       </c>
       <c r="D22" s="4" t="s">
@@ -6096,7 +6075,7 @@
       <c r="B26" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="3" t="s">
         <v>122</v>
       </c>
       <c r="D26" s="4" t="s">
@@ -6107,7 +6086,7 @@
       <c r="B27" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="3" t="s">
         <v>123</v>
       </c>
       <c r="D27" s="4" t="s">
@@ -6118,7 +6097,7 @@
       <c r="B28" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="3" t="s">
         <v>124</v>
       </c>
       <c r="D28" s="4" t="s">
